--- a/data/Lecture 7a/DSM Airport.xlsx
+++ b/data/Lecture 7a/DSM Airport.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger_1/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger_1/Library/CloudStorage/Box-Box/cjseeger Docs/Teaching/2025/LA-5580-Spring-2025/data/Lecture 7a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9182980A-6A31-2E4B-BBE9-E62B2547CB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5361E5C0-A1F0-6D4C-9D25-95095A732137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="5780" windowWidth="26840" windowHeight="15940" xr2:uid="{3665BDFB-CE20-6749-92D5-CD459445A9D8}"/>
+    <workbookView xWindow="57440" yWindow="2380" windowWidth="26840" windowHeight="15940" xr2:uid="{3665BDFB-CE20-6749-92D5-CD459445A9D8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="DSM Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
